--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756181</v>
+        <v>111756232</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454460.4621299909</v>
+        <v>454523.0350590795</v>
       </c>
       <c r="R2" t="n">
-        <v>7077740.630513178</v>
+        <v>7077786.536032079</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756213</v>
+        <v>111756176</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454622.4404753841</v>
+        <v>454475.6993027811</v>
       </c>
       <c r="R3" t="n">
-        <v>7077657.910396829</v>
+        <v>7077724.069559937</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,11 +878,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756209</v>
+        <v>111756175</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,38 +920,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454565.3029798009</v>
+        <v>454431.4429152512</v>
       </c>
       <c r="R4" t="n">
-        <v>7077682.142679398</v>
+        <v>7077752.091841887</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1003,11 +990,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1034,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756210</v>
+        <v>111756179</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,42 +1028,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454473.1483228274</v>
+        <v>454498.0790025664</v>
       </c>
       <c r="R5" t="n">
-        <v>7077761.644564767</v>
+        <v>7077773.207171779</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,11 +1102,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1276,10 +1249,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756176</v>
+        <v>111756181</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1288,25 +1261,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1316,10 +1289,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454475.6993027811</v>
+        <v>454460.4621299909</v>
       </c>
       <c r="R7" t="n">
-        <v>7077724.069559937</v>
+        <v>7077740.630513178</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1388,10 +1361,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756180</v>
+        <v>111756220</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,38 +1373,42 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454560.61694413</v>
+        <v>454525.914873821</v>
       </c>
       <c r="R8" t="n">
-        <v>7077725.048469837</v>
+        <v>7077710.535193964</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1474,6 +1451,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1500,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756218</v>
+        <v>111756231</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1516,38 +1498,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454466.8576535354</v>
+        <v>454534.6536800998</v>
       </c>
       <c r="R9" t="n">
-        <v>7077693.725290715</v>
+        <v>7077733.814943176</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1590,11 +1568,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1621,10 +1594,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756175</v>
+        <v>111756213</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1637,34 +1610,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454431.4429152512</v>
+        <v>454622.4404753841</v>
       </c>
       <c r="R10" t="n">
-        <v>7077752.091841887</v>
+        <v>7077657.910396829</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1707,6 +1684,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1733,7 +1715,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756217</v>
+        <v>111756218</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1777,10 +1759,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454478.4010213219</v>
+        <v>454466.8576535354</v>
       </c>
       <c r="R11" t="n">
-        <v>7077818.978715241</v>
+        <v>7077693.725290715</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1827,7 +1809,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1854,7 +1836,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756211</v>
+        <v>111756214</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1898,10 +1880,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454466.9774101271</v>
+        <v>454612.2696360819</v>
       </c>
       <c r="R12" t="n">
-        <v>7077793.530569036</v>
+        <v>7077688.529986689</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1975,7 +1957,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756179</v>
+        <v>111756180</v>
       </c>
       <c r="B13" t="n">
         <v>90087</v>
@@ -2015,10 +1997,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454498.0790025664</v>
+        <v>454560.61694413</v>
       </c>
       <c r="R13" t="n">
-        <v>7077773.207171779</v>
+        <v>7077725.048469837</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2208,7 +2190,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756215</v>
+        <v>111756217</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2252,10 +2234,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454579.3516377718</v>
+        <v>454478.4010213219</v>
       </c>
       <c r="R15" t="n">
-        <v>7077736.259842747</v>
+        <v>7077818.978715241</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2302,7 +2284,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2329,7 +2311,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756232</v>
+        <v>111756233</v>
       </c>
       <c r="B16" t="n">
         <v>89423</v>
@@ -2369,10 +2351,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454523.0350590795</v>
+        <v>454467.3549283153</v>
       </c>
       <c r="R16" t="n">
-        <v>7077786.536032079</v>
+        <v>7077819.580391041</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2441,7 +2423,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756220</v>
+        <v>111756215</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2485,10 +2467,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454525.914873821</v>
+        <v>454579.3516377718</v>
       </c>
       <c r="R17" t="n">
-        <v>7077710.535193964</v>
+        <v>7077736.259842747</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2535,7 +2517,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2562,7 +2544,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756214</v>
+        <v>111756210</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2606,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454612.2696360819</v>
+        <v>454473.1483228274</v>
       </c>
       <c r="R18" t="n">
-        <v>7077688.529986689</v>
+        <v>7077761.644564767</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2683,10 +2665,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756231</v>
+        <v>111756211</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2699,34 +2681,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454534.6536800998</v>
+        <v>454466.9774101271</v>
       </c>
       <c r="R19" t="n">
-        <v>7077733.814943176</v>
+        <v>7077793.530569036</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2769,6 +2755,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2795,10 +2786,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756233</v>
+        <v>111756209</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2811,34 +2802,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454467.3549283153</v>
+        <v>454565.3029798009</v>
       </c>
       <c r="R20" t="n">
-        <v>7077819.580391041</v>
+        <v>7077682.142679398</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2881,6 +2876,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756232</v>
+        <v>111756181</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454523.0350590795</v>
+        <v>454460.4621299909</v>
       </c>
       <c r="R2" t="n">
-        <v>7077786.536032079</v>
+        <v>7077740.630513178</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756176</v>
+        <v>111756220</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +808,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454475.6993027811</v>
+        <v>454525.914873821</v>
       </c>
       <c r="R3" t="n">
-        <v>7077724.069559937</v>
+        <v>7077710.535193964</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,6 +882,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756175</v>
+        <v>111756180</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -944,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454431.4429152512</v>
+        <v>454560.61694413</v>
       </c>
       <c r="R4" t="n">
-        <v>7077752.091841887</v>
+        <v>7077725.048469837</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1128,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756219</v>
+        <v>111756216</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1172,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454503.8283094887</v>
+        <v>454530.8128078072</v>
       </c>
       <c r="R6" t="n">
-        <v>7077712.179813388</v>
+        <v>7077804.529736875</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756181</v>
+        <v>111756233</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,25 +1270,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1289,10 +1298,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454460.4621299909</v>
+        <v>454467.3549283153</v>
       </c>
       <c r="R7" t="n">
-        <v>7077740.630513178</v>
+        <v>7077819.580391041</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756220</v>
+        <v>111756176</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1377,38 +1386,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454525.914873821</v>
+        <v>454475.6993027811</v>
       </c>
       <c r="R8" t="n">
-        <v>7077710.535193964</v>
+        <v>7077724.069559937</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1451,11 +1456,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1482,10 +1482,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756231</v>
+        <v>111756217</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1498,34 +1498,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454534.6536800998</v>
+        <v>454478.4010213219</v>
       </c>
       <c r="R9" t="n">
-        <v>7077733.814943176</v>
+        <v>7077818.978715241</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1568,6 +1572,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1594,7 +1603,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756213</v>
+        <v>111756218</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1638,10 +1647,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454622.4404753841</v>
+        <v>454466.8576535354</v>
       </c>
       <c r="R10" t="n">
-        <v>7077657.910396829</v>
+        <v>7077693.725290715</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1715,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756218</v>
+        <v>111756175</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1731,38 +1740,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454466.8576535354</v>
+        <v>454431.4429152512</v>
       </c>
       <c r="R11" t="n">
-        <v>7077693.725290715</v>
+        <v>7077752.091841887</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1805,11 +1810,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1836,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756214</v>
+        <v>111756232</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1852,38 +1852,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454612.2696360819</v>
+        <v>454523.0350590795</v>
       </c>
       <c r="R12" t="n">
-        <v>7077688.529986689</v>
+        <v>7077786.536032079</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1926,11 +1922,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,10 +1948,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756180</v>
+        <v>111756209</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1969,38 +1960,42 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454560.61694413</v>
+        <v>454565.3029798009</v>
       </c>
       <c r="R13" t="n">
-        <v>7077725.048469837</v>
+        <v>7077682.142679398</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2043,6 +2038,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2069,7 +2069,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756216</v>
+        <v>111756215</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2113,10 +2113,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454530.8128078072</v>
+        <v>454579.3516377718</v>
       </c>
       <c r="R14" t="n">
-        <v>7077804.529736875</v>
+        <v>7077736.259842747</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756217</v>
+        <v>111756211</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2234,10 +2234,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454478.4010213219</v>
+        <v>454466.9774101271</v>
       </c>
       <c r="R15" t="n">
-        <v>7077818.978715241</v>
+        <v>7077793.530569036</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756233</v>
+        <v>111756231</v>
       </c>
       <c r="B16" t="n">
         <v>89423</v>
@@ -2351,10 +2351,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454467.3549283153</v>
+        <v>454534.6536800998</v>
       </c>
       <c r="R16" t="n">
-        <v>7077819.580391041</v>
+        <v>7077733.814943176</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756215</v>
+        <v>111756210</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454579.3516377718</v>
+        <v>454473.1483228274</v>
       </c>
       <c r="R17" t="n">
-        <v>7077736.259842747</v>
+        <v>7077761.644564767</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2544,7 +2544,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756210</v>
+        <v>111756214</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2588,10 +2588,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454473.1483228274</v>
+        <v>454612.2696360819</v>
       </c>
       <c r="R18" t="n">
-        <v>7077761.644564767</v>
+        <v>7077688.529986689</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756211</v>
+        <v>111756219</v>
       </c>
       <c r="B19" t="n">
         <v>56398</v>
@@ -2709,10 +2709,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454466.9774101271</v>
+        <v>454503.8283094887</v>
       </c>
       <c r="R19" t="n">
-        <v>7077793.530569036</v>
+        <v>7077712.179813388</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2759,7 +2759,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2786,7 +2786,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756209</v>
+        <v>111756213</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454565.3029798009</v>
+        <v>454622.4404753841</v>
       </c>
       <c r="R20" t="n">
-        <v>7077682.142679398</v>
+        <v>7077657.910396829</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756181</v>
+        <v>111756218</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,42 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454460.4621299909</v>
+        <v>454466.8576535354</v>
       </c>
       <c r="R2" t="n">
-        <v>7077740.630513178</v>
+        <v>7077693.725290715</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -766,6 +770,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756220</v>
+        <v>111756175</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,38 +817,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454525.914873821</v>
+        <v>454431.4429152512</v>
       </c>
       <c r="R3" t="n">
-        <v>7077710.535193964</v>
+        <v>7077752.091841887</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -882,11 +887,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -913,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756180</v>
+        <v>111756181</v>
       </c>
       <c r="B4" t="n">
         <v>90087</v>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454560.61694413</v>
+        <v>454460.4621299909</v>
       </c>
       <c r="R4" t="n">
-        <v>7077725.048469837</v>
+        <v>7077740.630513178</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756216</v>
+        <v>111756210</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1181,10 +1181,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454530.8128078072</v>
+        <v>454473.1483228274</v>
       </c>
       <c r="R6" t="n">
-        <v>7077804.529736875</v>
+        <v>7077761.644564767</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1258,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756233</v>
+        <v>111756176</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,21 +1274,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1298,10 +1298,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454467.3549283153</v>
+        <v>454475.6993027811</v>
       </c>
       <c r="R7" t="n">
-        <v>7077819.580391041</v>
+        <v>7077724.069559937</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756176</v>
+        <v>111756217</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,34 +1386,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454475.6993027811</v>
+        <v>454478.4010213219</v>
       </c>
       <c r="R8" t="n">
-        <v>7077724.069559937</v>
+        <v>7077818.978715241</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1456,6 +1460,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1482,7 +1491,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756217</v>
+        <v>111756214</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1526,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454478.4010213219</v>
+        <v>454612.2696360819</v>
       </c>
       <c r="R9" t="n">
-        <v>7077818.978715241</v>
+        <v>7077688.529986689</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1603,7 +1612,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756218</v>
+        <v>111756213</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1647,10 +1656,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454466.8576535354</v>
+        <v>454622.4404753841</v>
       </c>
       <c r="R10" t="n">
-        <v>7077693.725290715</v>
+        <v>7077657.910396829</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756175</v>
+        <v>111756216</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,34 +1749,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454431.4429152512</v>
+        <v>454530.8128078072</v>
       </c>
       <c r="R11" t="n">
-        <v>7077752.091841887</v>
+        <v>7077804.529736875</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,6 +1823,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1836,10 +1854,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756232</v>
+        <v>111756180</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1848,25 +1866,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1876,10 +1894,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454523.0350590795</v>
+        <v>454560.61694413</v>
       </c>
       <c r="R12" t="n">
-        <v>7077786.536032079</v>
+        <v>7077725.048469837</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1948,7 +1966,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756209</v>
+        <v>111756211</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -1992,10 +2010,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454565.3029798009</v>
+        <v>454466.9774101271</v>
       </c>
       <c r="R13" t="n">
-        <v>7077682.142679398</v>
+        <v>7077793.530569036</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2190,7 +2208,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756211</v>
+        <v>111756209</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2234,10 +2252,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454466.9774101271</v>
+        <v>454565.3029798009</v>
       </c>
       <c r="R15" t="n">
-        <v>7077793.530569036</v>
+        <v>7077682.142679398</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2311,7 +2329,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756231</v>
+        <v>111756233</v>
       </c>
       <c r="B16" t="n">
         <v>89423</v>
@@ -2351,10 +2369,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454534.6536800998</v>
+        <v>454467.3549283153</v>
       </c>
       <c r="R16" t="n">
-        <v>7077733.814943176</v>
+        <v>7077819.580391041</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2423,7 +2441,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756210</v>
+        <v>111756219</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2467,10 +2485,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454473.1483228274</v>
+        <v>454503.8283094887</v>
       </c>
       <c r="R17" t="n">
-        <v>7077761.644564767</v>
+        <v>7077712.179813388</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2517,7 +2535,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2544,10 +2562,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756214</v>
+        <v>111756231</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,38 +2578,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454612.2696360819</v>
+        <v>454534.6536800998</v>
       </c>
       <c r="R18" t="n">
-        <v>7077688.529986689</v>
+        <v>7077733.814943176</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2634,11 +2648,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2665,10 +2674,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756219</v>
+        <v>111756232</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2681,38 +2690,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454503.8283094887</v>
+        <v>454523.0350590795</v>
       </c>
       <c r="R19" t="n">
-        <v>7077712.179813388</v>
+        <v>7077786.536032079</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2755,11 +2760,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2786,7 +2786,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756213</v>
+        <v>111756220</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454622.4404753841</v>
+        <v>454525.914873821</v>
       </c>
       <c r="R20" t="n">
-        <v>7077657.910396829</v>
+        <v>7077710.535193964</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756218</v>
+        <v>111756213</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454466.8576535354</v>
+        <v>454622.4404753841</v>
       </c>
       <c r="R2" t="n">
-        <v>7077693.725290715</v>
+        <v>7077657.910396829</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756175</v>
+        <v>111756211</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,34 +817,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454431.4429152512</v>
+        <v>454466.9774101271</v>
       </c>
       <c r="R3" t="n">
-        <v>7077752.091841887</v>
+        <v>7077793.530569036</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -887,6 +891,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -1025,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756179</v>
+        <v>111756176</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,25 +1046,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1065,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454498.0790025664</v>
+        <v>454475.6993027811</v>
       </c>
       <c r="R5" t="n">
-        <v>7077773.207171779</v>
+        <v>7077724.069559937</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756210</v>
+        <v>111756231</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1153,38 +1162,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454473.1483228274</v>
+        <v>454534.6536800998</v>
       </c>
       <c r="R6" t="n">
-        <v>7077761.644564767</v>
+        <v>7077733.814943176</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1227,11 +1232,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1258,10 +1258,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756176</v>
+        <v>111756218</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1274,34 +1274,38 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454475.6993027811</v>
+        <v>454466.8576535354</v>
       </c>
       <c r="R7" t="n">
-        <v>7077724.069559937</v>
+        <v>7077693.725290715</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1344,6 +1348,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1370,7 +1379,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756217</v>
+        <v>111756215</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1414,10 +1423,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454478.4010213219</v>
+        <v>454579.3516377718</v>
       </c>
       <c r="R8" t="n">
-        <v>7077818.978715241</v>
+        <v>7077736.259842747</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1473,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1491,7 +1500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756214</v>
+        <v>111756219</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1535,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454612.2696360819</v>
+        <v>454503.8283094887</v>
       </c>
       <c r="R9" t="n">
-        <v>7077688.529986689</v>
+        <v>7077712.179813388</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,7 +1594,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1612,7 +1621,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756213</v>
+        <v>111756217</v>
       </c>
       <c r="B10" t="n">
         <v>56398</v>
@@ -1656,10 +1665,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454622.4404753841</v>
+        <v>454478.4010213219</v>
       </c>
       <c r="R10" t="n">
-        <v>7077657.910396829</v>
+        <v>7077818.978715241</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1706,7 +1715,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1733,10 +1742,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756216</v>
+        <v>111756175</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,38 +1758,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454530.8128078072</v>
+        <v>454431.4429152512</v>
       </c>
       <c r="R11" t="n">
-        <v>7077804.529736875</v>
+        <v>7077752.091841887</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1823,11 +1828,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1854,7 +1854,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756180</v>
+        <v>111756179</v>
       </c>
       <c r="B12" t="n">
         <v>90087</v>
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454560.61694413</v>
+        <v>454498.0790025664</v>
       </c>
       <c r="R12" t="n">
-        <v>7077725.048469837</v>
+        <v>7077773.207171779</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1966,10 +1966,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756211</v>
+        <v>111756233</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1982,38 +1982,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454466.9774101271</v>
+        <v>454467.3549283153</v>
       </c>
       <c r="R13" t="n">
-        <v>7077793.530569036</v>
+        <v>7077819.580391041</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2056,11 +2052,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2087,7 +2078,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756215</v>
+        <v>111756216</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2131,10 +2122,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454579.3516377718</v>
+        <v>454530.8128078072</v>
       </c>
       <c r="R14" t="n">
-        <v>7077736.259842747</v>
+        <v>7077804.529736875</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2208,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756209</v>
+        <v>111756180</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2220,42 +2211,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454565.3029798009</v>
+        <v>454560.61694413</v>
       </c>
       <c r="R15" t="n">
-        <v>7077682.142679398</v>
+        <v>7077725.048469837</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2298,11 +2285,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2329,10 +2311,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756233</v>
+        <v>111756220</v>
       </c>
       <c r="B16" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2345,34 +2327,38 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454467.3549283153</v>
+        <v>454525.914873821</v>
       </c>
       <c r="R16" t="n">
-        <v>7077819.580391041</v>
+        <v>7077710.535193964</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2415,6 +2401,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2441,7 +2432,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756219</v>
+        <v>111756210</v>
       </c>
       <c r="B17" t="n">
         <v>56398</v>
@@ -2485,10 +2476,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454503.8283094887</v>
+        <v>454473.1483228274</v>
       </c>
       <c r="R17" t="n">
-        <v>7077712.179813388</v>
+        <v>7077761.644564767</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2535,7 +2526,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2562,10 +2553,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756231</v>
+        <v>111756209</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2578,34 +2569,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454534.6536800998</v>
+        <v>454565.3029798009</v>
       </c>
       <c r="R18" t="n">
-        <v>7077733.814943176</v>
+        <v>7077682.142679398</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2648,6 +2643,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2674,10 +2674,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756232</v>
+        <v>111756214</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2690,34 +2690,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454523.0350590795</v>
+        <v>454612.2696360819</v>
       </c>
       <c r="R19" t="n">
-        <v>7077786.536032079</v>
+        <v>7077688.529986689</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2760,6 +2764,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2786,10 +2795,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756220</v>
+        <v>111756232</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2802,38 +2811,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454525.914873821</v>
+        <v>454523.0350590795</v>
       </c>
       <c r="R20" t="n">
-        <v>7077710.535193964</v>
+        <v>7077786.536032079</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2876,11 +2881,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756213</v>
+        <v>111756219</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454622.4404753841</v>
+        <v>454503.8283094887</v>
       </c>
       <c r="R2" t="n">
-        <v>7077657.910396829</v>
+        <v>7077712.179813388</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756211</v>
+        <v>111756179</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,42 +813,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454466.9774101271</v>
+        <v>454498.0790025664</v>
       </c>
       <c r="R3" t="n">
-        <v>7077793.530569036</v>
+        <v>7077773.207171779</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -891,11 +887,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756181</v>
+        <v>111756175</v>
       </c>
       <c r="B4" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,25 +925,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,10 +953,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454460.4621299909</v>
+        <v>454431.4429152512</v>
       </c>
       <c r="R4" t="n">
-        <v>7077740.630513178</v>
+        <v>7077752.091841887</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,10 +1025,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756176</v>
+        <v>111756233</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1050,21 +1041,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1074,10 +1065,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454475.6993027811</v>
+        <v>454467.3549283153</v>
       </c>
       <c r="R5" t="n">
-        <v>7077724.069559937</v>
+        <v>7077819.580391041</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1146,7 +1137,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756231</v>
+        <v>111756232</v>
       </c>
       <c r="B6" t="n">
         <v>89423</v>
@@ -1186,10 +1177,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454534.6536800998</v>
+        <v>454523.0350590795</v>
       </c>
       <c r="R6" t="n">
-        <v>7077733.814943176</v>
+        <v>7077786.536032079</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1258,7 +1249,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756218</v>
+        <v>111756209</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1302,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454466.8576535354</v>
+        <v>454565.3029798009</v>
       </c>
       <c r="R7" t="n">
-        <v>7077693.725290715</v>
+        <v>7077682.142679398</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1343,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1379,7 +1370,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756215</v>
+        <v>111756211</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1423,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454579.3516377718</v>
+        <v>454466.9774101271</v>
       </c>
       <c r="R8" t="n">
-        <v>7077736.259842747</v>
+        <v>7077793.530569036</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1473,7 +1464,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1500,7 +1491,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756219</v>
+        <v>111756216</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1544,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454503.8283094887</v>
+        <v>454530.8128078072</v>
       </c>
       <c r="R9" t="n">
-        <v>7077712.179813388</v>
+        <v>7077804.529736875</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1621,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756217</v>
+        <v>111756180</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,42 +1624,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454478.4010213219</v>
+        <v>454560.61694413</v>
       </c>
       <c r="R10" t="n">
-        <v>7077818.978715241</v>
+        <v>7077725.048469837</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1711,11 +1698,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1742,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756175</v>
+        <v>111756231</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1758,21 +1740,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1782,10 +1764,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454431.4429152512</v>
+        <v>454534.6536800998</v>
       </c>
       <c r="R11" t="n">
-        <v>7077752.091841887</v>
+        <v>7077733.814943176</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1854,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756179</v>
+        <v>111756213</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,38 +1848,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454498.0790025664</v>
+        <v>454622.4404753841</v>
       </c>
       <c r="R12" t="n">
-        <v>7077773.207171779</v>
+        <v>7077657.910396829</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1940,6 +1926,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1966,10 +1957,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756233</v>
+        <v>111756215</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1982,34 +1973,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454467.3549283153</v>
+        <v>454579.3516377718</v>
       </c>
       <c r="R13" t="n">
-        <v>7077819.580391041</v>
+        <v>7077736.259842747</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2052,6 +2047,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2078,7 +2078,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756216</v>
+        <v>111756217</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2122,10 +2122,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454530.8128078072</v>
+        <v>454478.4010213219</v>
       </c>
       <c r="R14" t="n">
-        <v>7077804.529736875</v>
+        <v>7077818.978715241</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2199,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756180</v>
+        <v>111756218</v>
       </c>
       <c r="B15" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2211,38 +2211,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454560.61694413</v>
+        <v>454466.8576535354</v>
       </c>
       <c r="R15" t="n">
-        <v>7077725.048469837</v>
+        <v>7077693.725290715</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2285,6 +2289,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2311,7 +2320,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756220</v>
+        <v>111756210</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2355,10 +2364,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454525.914873821</v>
+        <v>454473.1483228274</v>
       </c>
       <c r="R16" t="n">
-        <v>7077710.535193964</v>
+        <v>7077761.644564767</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2432,10 +2441,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756210</v>
+        <v>111756181</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2444,42 +2453,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454473.1483228274</v>
+        <v>454460.4621299909</v>
       </c>
       <c r="R17" t="n">
-        <v>7077761.644564767</v>
+        <v>7077740.630513178</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2522,11 +2527,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2553,7 +2553,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756209</v>
+        <v>111756214</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454565.3029798009</v>
+        <v>454612.2696360819</v>
       </c>
       <c r="R18" t="n">
-        <v>7077682.142679398</v>
+        <v>7077688.529986689</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756214</v>
+        <v>111756176</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2690,38 +2690,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454612.2696360819</v>
+        <v>454475.6993027811</v>
       </c>
       <c r="R19" t="n">
-        <v>7077688.529986689</v>
+        <v>7077724.069559937</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2764,11 +2760,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2795,10 +2786,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756232</v>
+        <v>111756220</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2811,34 +2802,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454523.0350590795</v>
+        <v>454525.914873821</v>
       </c>
       <c r="R20" t="n">
-        <v>7077786.536032079</v>
+        <v>7077710.535193964</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2881,6 +2876,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -1249,7 +1249,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756209</v>
+        <v>111756211</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454565.3029798009</v>
+        <v>454466.9774101271</v>
       </c>
       <c r="R7" t="n">
-        <v>7077682.142679398</v>
+        <v>7077793.530569036</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756211</v>
+        <v>111756209</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1414,10 +1414,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454466.9774101271</v>
+        <v>454565.3029798009</v>
       </c>
       <c r="R8" t="n">
-        <v>7077793.530569036</v>
+        <v>7077682.142679398</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756219</v>
+        <v>111756214</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454503.8283094887</v>
+        <v>454612.2696360819</v>
       </c>
       <c r="R2" t="n">
-        <v>7077712.179813388</v>
+        <v>7077688.529986689</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756179</v>
+        <v>111756180</v>
       </c>
       <c r="B3" t="n">
         <v>90087</v>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454498.0790025664</v>
+        <v>454560.61694413</v>
       </c>
       <c r="R3" t="n">
-        <v>7077773.207171779</v>
+        <v>7077725.048469837</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756175</v>
+        <v>111756216</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,34 +929,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454431.4429152512</v>
+        <v>454530.8128078072</v>
       </c>
       <c r="R4" t="n">
-        <v>7077752.091841887</v>
+        <v>7077804.529736875</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,6 +1003,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756233</v>
+        <v>111756210</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1041,34 +1050,38 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454467.3549283153</v>
+        <v>454473.1483228274</v>
       </c>
       <c r="R5" t="n">
-        <v>7077819.580391041</v>
+        <v>7077761.644564767</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1111,6 +1124,11 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1137,7 +1155,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756232</v>
+        <v>111756233</v>
       </c>
       <c r="B6" t="n">
         <v>89423</v>
@@ -1177,10 +1195,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454523.0350590795</v>
+        <v>454467.3549283153</v>
       </c>
       <c r="R6" t="n">
-        <v>7077786.536032079</v>
+        <v>7077819.580391041</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,7 +1267,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756211</v>
+        <v>111756219</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1293,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454466.9774101271</v>
+        <v>454503.8283094887</v>
       </c>
       <c r="R7" t="n">
-        <v>7077793.530569036</v>
+        <v>7077712.179813388</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1343,7 +1361,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1370,7 +1388,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756209</v>
+        <v>111756215</v>
       </c>
       <c r="B8" t="n">
         <v>56398</v>
@@ -1414,10 +1432,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454565.3029798009</v>
+        <v>454579.3516377718</v>
       </c>
       <c r="R8" t="n">
-        <v>7077682.142679398</v>
+        <v>7077736.259842747</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1482,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1491,7 +1509,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756216</v>
+        <v>111756218</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1535,10 +1553,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454530.8128078072</v>
+        <v>454466.8576535354</v>
       </c>
       <c r="R9" t="n">
-        <v>7077804.529736875</v>
+        <v>7077693.725290715</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,10 +1630,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756180</v>
+        <v>111756175</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1624,25 +1642,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1652,10 +1670,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454560.61694413</v>
+        <v>454431.4429152512</v>
       </c>
       <c r="R10" t="n">
-        <v>7077725.048469837</v>
+        <v>7077752.091841887</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,10 +1742,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756231</v>
+        <v>111756213</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1740,34 +1758,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454534.6536800998</v>
+        <v>454622.4404753841</v>
       </c>
       <c r="R11" t="n">
-        <v>7077733.814943176</v>
+        <v>7077657.910396829</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,6 +1832,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1836,7 +1863,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756213</v>
+        <v>111756209</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1880,10 +1907,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454622.4404753841</v>
+        <v>454565.3029798009</v>
       </c>
       <c r="R12" t="n">
-        <v>7077657.910396829</v>
+        <v>7077682.142679398</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1930,7 +1957,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1957,10 +1984,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756215</v>
+        <v>111756176</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1973,38 +2000,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454579.3516377718</v>
+        <v>454475.6993027811</v>
       </c>
       <c r="R13" t="n">
-        <v>7077736.259842747</v>
+        <v>7077724.069559937</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2047,11 +2070,6 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2078,7 +2096,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756217</v>
+        <v>111756211</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2122,10 +2140,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454478.4010213219</v>
+        <v>454466.9774101271</v>
       </c>
       <c r="R14" t="n">
-        <v>7077818.978715241</v>
+        <v>7077793.530569036</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2199,10 +2217,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756218</v>
+        <v>111756181</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2211,42 +2229,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454466.8576535354</v>
+        <v>454460.4621299909</v>
       </c>
       <c r="R15" t="n">
-        <v>7077693.725290715</v>
+        <v>7077740.630513178</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2289,11 +2303,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2320,7 +2329,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756210</v>
+        <v>111756220</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2364,10 +2373,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454473.1483228274</v>
+        <v>454525.914873821</v>
       </c>
       <c r="R16" t="n">
-        <v>7077761.644564767</v>
+        <v>7077710.535193964</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2441,7 +2450,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756181</v>
+        <v>111756179</v>
       </c>
       <c r="B17" t="n">
         <v>90087</v>
@@ -2481,10 +2490,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454460.4621299909</v>
+        <v>454498.0790025664</v>
       </c>
       <c r="R17" t="n">
-        <v>7077740.630513178</v>
+        <v>7077773.207171779</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2553,10 +2562,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756214</v>
+        <v>111756232</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2569,38 +2578,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454612.2696360819</v>
+        <v>454523.0350590795</v>
       </c>
       <c r="R18" t="n">
-        <v>7077688.529986689</v>
+        <v>7077786.536032079</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2643,11 +2648,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2674,10 +2674,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756176</v>
+        <v>111756217</v>
       </c>
       <c r="B19" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2690,34 +2690,38 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454475.6993027811</v>
+        <v>454478.4010213219</v>
       </c>
       <c r="R19" t="n">
-        <v>7077724.069559937</v>
+        <v>7077818.978715241</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2760,6 +2764,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2786,10 +2795,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756220</v>
+        <v>111756231</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2802,38 +2811,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454525.914873821</v>
+        <v>454534.6536800998</v>
       </c>
       <c r="R20" t="n">
-        <v>7077710.535193964</v>
+        <v>7077733.814943176</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2876,11 +2881,6 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756214</v>
+        <v>111756211</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454612.2696360819</v>
+        <v>454466.9774101271</v>
       </c>
       <c r="R2" t="n">
-        <v>7077688.529986689</v>
+        <v>7077793.530569036</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756180</v>
+        <v>111756176</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454560.61694413</v>
+        <v>454475.6993027811</v>
       </c>
       <c r="R3" t="n">
-        <v>7077725.048469837</v>
+        <v>7077724.069559937</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756216</v>
+        <v>111756217</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454530.8128078072</v>
+        <v>454478.4010213219</v>
       </c>
       <c r="R4" t="n">
-        <v>7077804.529736875</v>
+        <v>7077818.978715241</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1267,7 +1267,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756219</v>
+        <v>111756213</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454503.8283094887</v>
+        <v>454622.4404753841</v>
       </c>
       <c r="R7" t="n">
-        <v>7077712.179813388</v>
+        <v>7077657.910396829</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756215</v>
+        <v>111756232</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,38 +1404,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454579.3516377718</v>
+        <v>454523.0350590795</v>
       </c>
       <c r="R8" t="n">
-        <v>7077736.259842747</v>
+        <v>7077786.536032079</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1478,11 +1474,6 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1742,7 +1733,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756213</v>
+        <v>111756219</v>
       </c>
       <c r="B11" t="n">
         <v>56398</v>
@@ -1786,10 +1777,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454622.4404753841</v>
+        <v>454503.8283094887</v>
       </c>
       <c r="R11" t="n">
-        <v>7077657.910396829</v>
+        <v>7077712.179813388</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1863,10 +1854,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756209</v>
+        <v>111756181</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1875,42 +1866,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454565.3029798009</v>
+        <v>454460.4621299909</v>
       </c>
       <c r="R12" t="n">
-        <v>7077682.142679398</v>
+        <v>7077740.630513178</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1953,11 +1940,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1984,10 +1966,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756176</v>
+        <v>111756209</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2000,34 +1982,38 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454475.6993027811</v>
+        <v>454565.3029798009</v>
       </c>
       <c r="R13" t="n">
-        <v>7077724.069559937</v>
+        <v>7077682.142679398</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2070,6 +2056,11 @@
       <c r="AB13" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2096,7 +2087,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756211</v>
+        <v>111756215</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2140,10 +2131,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454466.9774101271</v>
+        <v>454579.3516377718</v>
       </c>
       <c r="R14" t="n">
-        <v>7077793.530569036</v>
+        <v>7077736.259842747</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2190,7 +2181,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2217,10 +2208,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756181</v>
+        <v>111756216</v>
       </c>
       <c r="B15" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2229,38 +2220,42 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454460.4621299909</v>
+        <v>454530.8128078072</v>
       </c>
       <c r="R15" t="n">
-        <v>7077740.630513178</v>
+        <v>7077804.529736875</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2303,6 +2298,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2329,7 +2329,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756220</v>
+        <v>111756214</v>
       </c>
       <c r="B16" t="n">
         <v>56398</v>
@@ -2373,10 +2373,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454525.914873821</v>
+        <v>454612.2696360819</v>
       </c>
       <c r="R16" t="n">
-        <v>7077710.535193964</v>
+        <v>7077688.529986689</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756232</v>
+        <v>111756220</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2578,34 +2578,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454523.0350590795</v>
+        <v>454525.914873821</v>
       </c>
       <c r="R18" t="n">
-        <v>7077786.536032079</v>
+        <v>7077710.535193964</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2648,6 +2652,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2674,10 +2683,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756217</v>
+        <v>111756180</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2686,42 +2695,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454478.4010213219</v>
+        <v>454560.61694413</v>
       </c>
       <c r="R19" t="n">
-        <v>7077818.978715241</v>
+        <v>7077725.048469837</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2764,11 +2769,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756211</v>
+        <v>111756218</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454466.9774101271</v>
+        <v>454466.8576535354</v>
       </c>
       <c r="R2" t="n">
-        <v>7077793.530569036</v>
+        <v>7077693.725290715</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756176</v>
+        <v>111756180</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +813,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454475.6993027811</v>
+        <v>454560.61694413</v>
       </c>
       <c r="R3" t="n">
-        <v>7077724.069559937</v>
+        <v>7077725.048469837</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756217</v>
+        <v>111756233</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,38 +929,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454478.4010213219</v>
+        <v>454467.3549283153</v>
       </c>
       <c r="R4" t="n">
-        <v>7077818.978715241</v>
+        <v>7077819.580391041</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1003,11 +999,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1034,7 +1025,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756210</v>
+        <v>111756213</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1078,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454473.1483228274</v>
+        <v>454622.4404753841</v>
       </c>
       <c r="R5" t="n">
-        <v>7077761.644564767</v>
+        <v>7077657.910396829</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1119,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756233</v>
+        <v>111756209</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,34 +1162,38 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454467.3549283153</v>
+        <v>454565.3029798009</v>
       </c>
       <c r="R6" t="n">
-        <v>7077819.580391041</v>
+        <v>7077682.142679398</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1241,6 +1236,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,7 +1267,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756213</v>
+        <v>111756217</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454622.4404753841</v>
+        <v>454478.4010213219</v>
       </c>
       <c r="R7" t="n">
-        <v>7077657.910396829</v>
+        <v>7077818.978715241</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756232</v>
+        <v>111756175</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,21 +1404,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454523.0350590795</v>
+        <v>454431.4429152512</v>
       </c>
       <c r="R8" t="n">
-        <v>7077786.536032079</v>
+        <v>7077752.091841887</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756218</v>
+        <v>111756214</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1544,10 +1544,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454466.8576535354</v>
+        <v>454612.2696360819</v>
       </c>
       <c r="R9" t="n">
-        <v>7077693.725290715</v>
+        <v>7077688.529986689</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1621,10 +1621,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756175</v>
+        <v>111756181</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,25 +1633,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454431.4429152512</v>
+        <v>454460.4621299909</v>
       </c>
       <c r="R10" t="n">
-        <v>7077752.091841887</v>
+        <v>7077740.630513178</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756219</v>
+        <v>111756232</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,38 +1749,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454503.8283094887</v>
+        <v>454523.0350590795</v>
       </c>
       <c r="R11" t="n">
-        <v>7077712.179813388</v>
+        <v>7077786.536032079</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1823,11 +1819,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1854,10 +1845,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756181</v>
+        <v>111756215</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,38 +1857,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454460.4621299909</v>
+        <v>454579.3516377718</v>
       </c>
       <c r="R12" t="n">
-        <v>7077740.630513178</v>
+        <v>7077736.259842747</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1940,6 +1935,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1966,7 +1966,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756209</v>
+        <v>111756216</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2010,10 +2010,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454565.3029798009</v>
+        <v>454530.8128078072</v>
       </c>
       <c r="R13" t="n">
-        <v>7077682.142679398</v>
+        <v>7077804.529736875</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2087,7 +2087,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756215</v>
+        <v>111756211</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454579.3516377718</v>
+        <v>454466.9774101271</v>
       </c>
       <c r="R14" t="n">
-        <v>7077736.259842747</v>
+        <v>7077793.530569036</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2208,10 +2208,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756216</v>
+        <v>111756176</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2224,38 +2224,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454530.8128078072</v>
+        <v>454475.6993027811</v>
       </c>
       <c r="R15" t="n">
-        <v>7077804.529736875</v>
+        <v>7077724.069559937</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2298,11 +2294,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2329,10 +2320,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756214</v>
+        <v>111756179</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2341,42 +2332,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454612.2696360819</v>
+        <v>454498.0790025664</v>
       </c>
       <c r="R16" t="n">
-        <v>7077688.529986689</v>
+        <v>7077773.207171779</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2419,11 +2406,6 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2450,10 +2432,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756179</v>
+        <v>111756219</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2462,38 +2444,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454498.0790025664</v>
+        <v>454503.8283094887</v>
       </c>
       <c r="R17" t="n">
-        <v>7077773.207171779</v>
+        <v>7077712.179813388</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2536,6 +2522,11 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2562,10 +2553,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756220</v>
+        <v>111756231</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2578,38 +2569,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454525.914873821</v>
+        <v>454534.6536800998</v>
       </c>
       <c r="R18" t="n">
-        <v>7077710.535193964</v>
+        <v>7077733.814943176</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2652,11 +2639,6 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2683,10 +2665,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756180</v>
+        <v>111756220</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2695,38 +2677,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454560.61694413</v>
+        <v>454525.914873821</v>
       </c>
       <c r="R19" t="n">
-        <v>7077725.048469837</v>
+        <v>7077710.535193964</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2769,6 +2755,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2795,10 +2786,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756231</v>
+        <v>111756210</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2811,34 +2802,38 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454534.6536800998</v>
+        <v>454473.1483228274</v>
       </c>
       <c r="R20" t="n">
-        <v>7077733.814943176</v>
+        <v>7077761.644564767</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2881,6 +2876,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756218</v>
+        <v>111756233</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,38 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454466.8576535354</v>
+        <v>454467.3549283153</v>
       </c>
       <c r="R2" t="n">
-        <v>7077693.725290715</v>
+        <v>7077819.580391041</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -770,11 +766,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756180</v>
+        <v>111756176</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,25 +804,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454560.61694413</v>
+        <v>454475.6993027811</v>
       </c>
       <c r="R3" t="n">
-        <v>7077725.048469837</v>
+        <v>7077724.069559937</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -913,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756233</v>
+        <v>111756209</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,34 +920,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454467.3549283153</v>
+        <v>454565.3029798009</v>
       </c>
       <c r="R4" t="n">
-        <v>7077819.580391041</v>
+        <v>7077682.142679398</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,6 +994,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,7 +1025,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756213</v>
+        <v>111756217</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454622.4404753841</v>
+        <v>454478.4010213219</v>
       </c>
       <c r="R5" t="n">
-        <v>7077657.910396829</v>
+        <v>7077818.978715241</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,7 +1146,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756209</v>
+        <v>111756219</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454565.3029798009</v>
+        <v>454503.8283094887</v>
       </c>
       <c r="R6" t="n">
-        <v>7077682.142679398</v>
+        <v>7077712.179813388</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1267,7 +1267,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756217</v>
+        <v>111756218</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454478.4010213219</v>
+        <v>454466.8576535354</v>
       </c>
       <c r="R7" t="n">
-        <v>7077818.978715241</v>
+        <v>7077693.725290715</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756175</v>
+        <v>111756211</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,34 +1404,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454431.4429152512</v>
+        <v>454466.9774101271</v>
       </c>
       <c r="R8" t="n">
-        <v>7077752.091841887</v>
+        <v>7077793.530569036</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1474,6 +1478,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1500,10 +1509,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756214</v>
+        <v>111756232</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1516,38 +1525,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454612.2696360819</v>
+        <v>454523.0350590795</v>
       </c>
       <c r="R9" t="n">
-        <v>7077688.529986689</v>
+        <v>7077786.536032079</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1590,11 +1595,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1621,10 +1621,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756181</v>
+        <v>111756231</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,25 +1633,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1661,10 +1661,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454460.4621299909</v>
+        <v>454534.6536800998</v>
       </c>
       <c r="R10" t="n">
-        <v>7077740.630513178</v>
+        <v>7077733.814943176</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1733,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756232</v>
+        <v>111756213</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,34 +1749,38 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454523.0350590795</v>
+        <v>454622.4404753841</v>
       </c>
       <c r="R11" t="n">
-        <v>7077786.536032079</v>
+        <v>7077657.910396829</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1819,6 +1823,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1966,7 +1975,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756216</v>
+        <v>111756214</v>
       </c>
       <c r="B13" t="n">
         <v>56398</v>
@@ -2010,10 +2019,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454530.8128078072</v>
+        <v>454612.2696360819</v>
       </c>
       <c r="R13" t="n">
-        <v>7077804.529736875</v>
+        <v>7077688.529986689</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2060,7 +2069,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2087,10 +2096,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756211</v>
+        <v>111756181</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2099,42 +2108,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454466.9774101271</v>
+        <v>454460.4621299909</v>
       </c>
       <c r="R14" t="n">
-        <v>7077793.530569036</v>
+        <v>7077740.630513178</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2177,11 +2182,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2208,10 +2208,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756176</v>
+        <v>111756210</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2224,34 +2224,38 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454475.6993027811</v>
+        <v>454473.1483228274</v>
       </c>
       <c r="R15" t="n">
-        <v>7077724.069559937</v>
+        <v>7077761.644564767</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2294,6 +2298,11 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2432,10 +2441,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756219</v>
+        <v>111756180</v>
       </c>
       <c r="B17" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2444,42 +2453,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454503.8283094887</v>
+        <v>454560.61694413</v>
       </c>
       <c r="R17" t="n">
-        <v>7077712.179813388</v>
+        <v>7077725.048469837</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2522,11 +2527,6 @@
       <c r="AB17" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2553,10 +2553,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756231</v>
+        <v>111756220</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2569,34 +2569,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454534.6536800998</v>
+        <v>454525.914873821</v>
       </c>
       <c r="R18" t="n">
-        <v>7077733.814943176</v>
+        <v>7077710.535193964</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2639,6 +2643,11 @@
       <c r="AB18" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2665,10 +2674,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756220</v>
+        <v>111756175</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2681,38 +2690,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454525.914873821</v>
+        <v>454431.4429152512</v>
       </c>
       <c r="R19" t="n">
-        <v>7077710.535193964</v>
+        <v>7077752.091841887</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2755,11 +2760,6 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2786,7 +2786,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756210</v>
+        <v>111756216</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2830,10 +2830,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454473.1483228274</v>
+        <v>454530.8128078072</v>
       </c>
       <c r="R20" t="n">
-        <v>7077761.644564767</v>
+        <v>7077804.529736875</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2880,7 +2880,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756233</v>
+        <v>111756210</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,38 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454467.3549283153</v>
+        <v>454473</v>
       </c>
       <c r="R2" t="n">
-        <v>7077819.580391041</v>
+        <v>7077762</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -753,19 +757,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -792,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756176</v>
+        <v>111756218</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,34 +807,38 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>454475.6993027811</v>
+        <v>454467</v>
       </c>
       <c r="R3" t="n">
-        <v>7077724.069559937</v>
+        <v>7077694</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -865,19 +868,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -904,7 +902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756209</v>
+        <v>111756219</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -948,10 +946,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454565.3029798009</v>
+        <v>454504</v>
       </c>
       <c r="R4" t="n">
-        <v>7077682.142679398</v>
+        <v>7077712</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -981,24 +979,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1025,7 +1013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756217</v>
+        <v>111756215</v>
       </c>
       <c r="B5" t="n">
         <v>56398</v>
@@ -1069,10 +1057,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454478.4010213219</v>
+        <v>454579</v>
       </c>
       <c r="R5" t="n">
-        <v>7077818.978715241</v>
+        <v>7077736</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1102,24 +1090,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1146,7 +1124,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756219</v>
+        <v>111756216</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1190,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454503.8283094887</v>
+        <v>454531</v>
       </c>
       <c r="R6" t="n">
-        <v>7077712.179813388</v>
+        <v>7077805</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,19 +1201,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1267,10 +1235,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756218</v>
+        <v>111756232</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1283,38 +1251,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454466.8576535354</v>
+        <v>454523</v>
       </c>
       <c r="R7" t="n">
-        <v>7077693.725290715</v>
+        <v>7077787</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1344,24 +1308,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1388,10 +1337,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756211</v>
+        <v>111756175</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,38 +1353,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454466.9774101271</v>
+        <v>454431</v>
       </c>
       <c r="R8" t="n">
-        <v>7077793.530569036</v>
+        <v>7077752</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1465,24 +1410,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1509,10 +1439,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756232</v>
+        <v>111756213</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1525,34 +1455,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454523.0350590795</v>
+        <v>454622</v>
       </c>
       <c r="R9" t="n">
-        <v>7077786.536032079</v>
+        <v>7077658</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1582,19 +1516,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1661,10 +1590,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454534.6536800998</v>
+        <v>454535</v>
       </c>
       <c r="R10" t="n">
-        <v>7077733.814943176</v>
+        <v>7077734</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1694,19 +1623,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1733,10 +1652,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756213</v>
+        <v>111756179</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1745,42 +1664,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454622.4404753841</v>
+        <v>454498</v>
       </c>
       <c r="R11" t="n">
-        <v>7077657.910396829</v>
+        <v>7077773</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,24 +1725,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1854,7 +1754,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756215</v>
+        <v>111756211</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1898,10 +1798,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454579.3516377718</v>
+        <v>454467</v>
       </c>
       <c r="R12" t="n">
-        <v>7077736.259842747</v>
+        <v>7077794</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1931,24 +1831,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1975,10 +1865,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756214</v>
+        <v>111756233</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1991,38 +1881,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454612.2696360819</v>
+        <v>454467</v>
       </c>
       <c r="R13" t="n">
-        <v>7077688.529986689</v>
+        <v>7077820</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2052,24 +1938,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2096,10 +1967,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756181</v>
+        <v>111756217</v>
       </c>
       <c r="B14" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2108,38 +1979,42 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454460.4621299909</v>
+        <v>454478</v>
       </c>
       <c r="R14" t="n">
-        <v>7077740.630513178</v>
+        <v>7077819</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2169,19 +2044,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2208,7 +2078,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756210</v>
+        <v>111756209</v>
       </c>
       <c r="B15" t="n">
         <v>56398</v>
@@ -2252,10 +2122,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454473.1483228274</v>
+        <v>454565</v>
       </c>
       <c r="R15" t="n">
-        <v>7077761.644564767</v>
+        <v>7077682</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2285,19 +2155,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
@@ -2329,10 +2189,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756179</v>
+        <v>111756176</v>
       </c>
       <c r="B16" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2341,25 +2201,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2369,10 +2229,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454498.0790025664</v>
+        <v>454476</v>
       </c>
       <c r="R16" t="n">
-        <v>7077773.207171779</v>
+        <v>7077724</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2402,19 +2262,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2441,7 +2291,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756180</v>
+        <v>111756181</v>
       </c>
       <c r="B17" t="n">
         <v>90087</v>
@@ -2481,10 +2331,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454560.61694413</v>
+        <v>454460</v>
       </c>
       <c r="R17" t="n">
-        <v>7077725.048469837</v>
+        <v>7077741</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2514,19 +2364,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2553,7 +2393,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756220</v>
+        <v>111756214</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2597,10 +2437,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454525.914873821</v>
+        <v>454612</v>
       </c>
       <c r="R18" t="n">
-        <v>7077710.535193964</v>
+        <v>7077689</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2630,19 +2470,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -2674,10 +2504,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756175</v>
+        <v>111756180</v>
       </c>
       <c r="B19" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2686,25 +2516,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2714,10 +2544,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454431.4429152512</v>
+        <v>454561</v>
       </c>
       <c r="R19" t="n">
-        <v>7077752.091841887</v>
+        <v>7077725</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2747,19 +2577,9 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2786,7 +2606,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756216</v>
+        <v>111756220</v>
       </c>
       <c r="B20" t="n">
         <v>56398</v>
@@ -2830,10 +2650,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454530.8128078072</v>
+        <v>454526</v>
       </c>
       <c r="R20" t="n">
-        <v>7077804.529736875</v>
+        <v>7077711</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2863,24 +2683,14 @@
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-28</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">

--- a/artfynd/A 49169-2019.xlsx
+++ b/artfynd/A 49169-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111756210</v>
+        <v>111756214</v>
       </c>
       <c r="B2" t="n">
         <v>56398</v>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>454473</v>
+        <v>454612</v>
       </c>
       <c r="R2" t="n">
-        <v>7077762</v>
+        <v>7077689</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -791,10 +791,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111756218</v>
+        <v>111756233</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -807,28 +807,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
@@ -838,7 +834,7 @@
         <v>454467</v>
       </c>
       <c r="R3" t="n">
-        <v>7077694</v>
+        <v>7077820</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -871,11 +867,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -902,7 +893,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111756219</v>
+        <v>111756216</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -946,10 +937,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>454504</v>
+        <v>454531</v>
       </c>
       <c r="R4" t="n">
-        <v>7077712</v>
+        <v>7077805</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1013,10 +1004,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111756215</v>
+        <v>111756232</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1029,38 +1020,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>454579</v>
+        <v>454523</v>
       </c>
       <c r="R5" t="n">
-        <v>7077736</v>
+        <v>7077787</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1093,11 +1080,6 @@
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1124,7 +1106,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111756216</v>
+        <v>111756220</v>
       </c>
       <c r="B6" t="n">
         <v>56398</v>
@@ -1168,10 +1150,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>454531</v>
+        <v>454526</v>
       </c>
       <c r="R6" t="n">
-        <v>7077805</v>
+        <v>7077711</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1208,7 +1190,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1235,10 +1217,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111756232</v>
+        <v>111756176</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1251,21 +1233,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1275,10 +1257,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>454523</v>
+        <v>454476</v>
       </c>
       <c r="R7" t="n">
-        <v>7077787</v>
+        <v>7077724</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1337,10 +1319,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111756175</v>
+        <v>111756209</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1353,34 +1335,38 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>454431</v>
+        <v>454565</v>
       </c>
       <c r="R8" t="n">
-        <v>7077752</v>
+        <v>7077682</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1413,6 +1399,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1439,7 +1430,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111756213</v>
+        <v>111756218</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1483,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>454622</v>
+        <v>454467</v>
       </c>
       <c r="R9" t="n">
-        <v>7077658</v>
+        <v>7077694</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1550,10 +1541,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111756231</v>
+        <v>111756217</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1566,34 +1557,38 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>454535</v>
+        <v>454478</v>
       </c>
       <c r="R10" t="n">
-        <v>7077734</v>
+        <v>7077819</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1626,6 +1621,11 @@
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1652,10 +1652,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111756179</v>
+        <v>111756219</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1664,38 +1664,42 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>454498</v>
+        <v>454504</v>
       </c>
       <c r="R11" t="n">
-        <v>7077773</v>
+        <v>7077712</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1728,6 +1732,11 @@
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1754,7 +1763,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111756211</v>
+        <v>111756215</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1798,10 +1807,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>454467</v>
+        <v>454579</v>
       </c>
       <c r="R12" t="n">
-        <v>7077794</v>
+        <v>7077736</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1838,7 +1847,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1865,10 +1874,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111756233</v>
+        <v>111756179</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1877,25 +1886,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1905,10 +1914,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>454467</v>
+        <v>454498</v>
       </c>
       <c r="R13" t="n">
-        <v>7077820</v>
+        <v>7077773</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1967,7 +1976,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111756217</v>
+        <v>111756211</v>
       </c>
       <c r="B14" t="n">
         <v>56398</v>
@@ -2011,10 +2020,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>454478</v>
+        <v>454467</v>
       </c>
       <c r="R14" t="n">
-        <v>7077819</v>
+        <v>7077794</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2078,10 +2087,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111756209</v>
+        <v>111756181</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2090,42 +2099,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>454565</v>
+        <v>454460</v>
       </c>
       <c r="R15" t="n">
-        <v>7077682</v>
+        <v>7077741</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2158,11 +2163,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2189,10 +2189,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111756176</v>
+        <v>111756231</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2205,21 +2205,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2229,10 +2229,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>454476</v>
+        <v>454535</v>
       </c>
       <c r="R16" t="n">
-        <v>7077724</v>
+        <v>7077734</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111756181</v>
+        <v>111756210</v>
       </c>
       <c r="B17" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2303,38 +2303,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>454460</v>
+        <v>454473</v>
       </c>
       <c r="R17" t="n">
-        <v>7077741</v>
+        <v>7077762</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2367,6 +2371,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-28</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2393,7 +2402,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111756214</v>
+        <v>111756213</v>
       </c>
       <c r="B18" t="n">
         <v>56398</v>
@@ -2437,10 +2446,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>454612</v>
+        <v>454622</v>
       </c>
       <c r="R18" t="n">
-        <v>7077689</v>
+        <v>7077658</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2477,7 +2486,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2504,10 +2513,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111756180</v>
+        <v>111756175</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2516,25 +2525,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2544,10 +2553,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>454561</v>
+        <v>454431</v>
       </c>
       <c r="R19" t="n">
-        <v>7077725</v>
+        <v>7077752</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2606,10 +2615,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111756220</v>
+        <v>111756180</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2618,42 +2627,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Stor-bakvattnet Ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>454526</v>
+        <v>454561</v>
       </c>
       <c r="R20" t="n">
-        <v>7077711</v>
+        <v>7077725</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2686,11 +2691,6 @@
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-28</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
